--- a/pontos_corridos/datasets_pontos_corridos/times.xlsx
+++ b/pontos_corridos/datasets_pontos_corridos/times.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,61 +478,89 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GE Bebum</t>
+          <t>GaúchoDaFronteira F.C</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Grêmio_Campeão_LA_27</t>
+          <t>GE Bebum</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>JV5 Tricolor Gaúcho</t>
+          <t>GrioTeam</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>La Primeira Patada Es Nuestra</t>
+          <t>Grêmio_Campeão_LA_27</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>lsauer fc</t>
+          <t>JV5 Tricolor Gaúcho</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Medonho´s F.C.</t>
+          <t>La Primeira Patada Es Nuestra</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>NHU PORÃ SAF.</t>
+          <t>lsauer fc</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SC ÉoINTER!</t>
+          <t>Medonho´s F.C.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
+        <is>
+          <t>NHU PORÃ SAF.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Pontaç0 F.C.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>SC 100 Sono</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>SC ÉoINTER!</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>Texas Club 2026</t>
         </is>

--- a/pontos_corridos/datasets_pontos_corridos/times.xlsx
+++ b/pontos_corridos/datasets_pontos_corridos/times.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A19"/>
+  <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -541,26 +541,33 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Pontaç0 F.C.</t>
+          <t>Pepe Leal FC</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SC 100 Sono</t>
+          <t>Pontaç0 F.C.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SC ÉoINTER!</t>
+          <t>SC 100 Sono</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
+        <is>
+          <t>SC ÉoINTER!</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Texas Club 2026</t>
         </is>

--- a/pontos_corridos/datasets_pontos_corridos/times.xlsx
+++ b/pontos_corridos/datasets_pontos_corridos/times.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,131 +443,138 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>bugredasmissões</t>
+          <t>Arran Katoko FC</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C R Juvenal</t>
+          <t>bugredasmissões</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Doug Leal F.C</t>
+          <t>C R Juvenal</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Esquadrão Gazembrino</t>
+          <t>Doug Leal F.C</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>FBC Colorado</t>
+          <t>Esquadrão Gazembrino</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GaúchoDaFronteira F.C</t>
+          <t>FBC Colorado</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>GE Bebum</t>
+          <t>GaúchoDaFronteira F.C</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>GrioTeam</t>
+          <t>GE Bebum</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Grêmio_Campeão_LA_27</t>
+          <t>GrioTeam</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>JV5 Tricolor Gaúcho</t>
+          <t>Grêmio_Campeão_LA_27</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>La Primeira Patada Es Nuestra</t>
+          <t>JV5 Tricolor Gaúcho</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>lsauer fc</t>
+          <t>La Primeira Patada Es Nuestra</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Medonho´s F.C.</t>
+          <t>lsauer fc</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>NHU PORÃ SAF.</t>
+          <t>Medonho´s F.C.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Pepe Leal FC</t>
+          <t>NHU PORÃ SAF.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Pontaç0 F.C.</t>
+          <t>Pepe Leal FC</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SC 100 Sono</t>
+          <t>Pontaç0 F.C.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SC ÉoINTER!</t>
+          <t>SC 100 Sono</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
+        <is>
+          <t>SC ÉoINTER!</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>Texas Club 2026</t>
         </is>
